--- a/assets/disciplinas/LOQ4010.xlsx
+++ b/assets/disciplinas/LOQ4010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>O principal objetivo do curso é permitir ao aluno ter uma visão preliminar da profissão e da formação acadêmica do engenheiro químico e orientar quanto as atribuições e campos de atuação deste profissional. Além disso, trazer noções quanto a função do engenheiro químico na indústria, ensino e pesquisa, enfatizar a ética profissional no campo da engenharia e, finalizando, introduzir conceitos básicos de engenharia química.</t>
+    <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>787307 - Luis Fernando Figueiredo Faria</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A Engenharia Química: Histórico e objetivos. Diferenças importantes entre ciência química e Engenharia Química. A Eng. Química aplicada a Indústria, ao Ensino e a Pesquisa. Principais atribuições e campos de atuação de um Engenheiro Químico. Legislação e associações de classe. Conceitos básicos em Processos Químicos e principais Operações Unitárias na Eng. Química. Dimensões e Unidades. Palestras e visitas.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) Apresentação da disciplina e grade curricular do curso de Engenharia Química na EEL.2) A Engenharia Química e a Sociedade - Histórico e Objetivos – A Eng. Química na Indústria, no Ensino e Pesquisa - Atribuições e Campo de Atuação do Engenheiro Químico - O Mercado de Trabalho - Órgãos que Regulamentam a profissão do Engenheiro Químico. Associações de classe.3) Definições básicas e Operações Unitárias na Eng. Química – Interpretação de fluxogramas de processo - As Indústrias Químicas e os Processos Industriais – Principais dimensões e unidades na engenharia química e suas conversões.4) Palestras e Visitas Técnicas a EEL e/ou a indústrias químicas para conhecimento de processos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>-Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) / 3Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) INDÚSTRIA QUÍMICA – RISCOS E OPORTUNIDADES, Pedro Wongtschowski, Ed. Edgar Blucher, 2002.2) INDÚSTRIAS DE PROCESSOS QUÍMICOS SHREVE, R. Norris Jr. ; Joseph A. Brink Ed. LTC, 1980.3) PRINCÍPIOS ELEMENTARES DE PROCESSOS QUÍMICOS, Felder, R.M.; Roussau, R.W. , 2005.4) ENGENHARIA QUÍMICA - PRINCÍPIOS E CÁLCULOS, Himmelblau, D.M. - Riggs, J.B.  Ed. LTC,  20065) INTRODUÇÃO A ENGENHARIA QUÍMICA BRASIL, Nilo Índio Ed. Interciência , 2013.6) ENGENHARIA QUÍMICA, Cremasco, Marco Aurélio, Ed. Edgard Blucher, 2005.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4010.xlsx
+++ b/assets/disciplinas/LOQ4010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>O principal objetivo do curso é permitir ao aluno ter uma visão preliminar da profissão e da formação acadêmica do engenheiro químico e orientar quanto as atribuições e campos de atuação deste profissional. Além disso, trazer noções quanto a função do engenheiro químico na indústria, ensino e pesquisa, enfatizar a ética profissional no campo da engenharia e, finalizando, introduzir conceitos básicos de engenharia química.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>The main objective of the course is to provide student a preliminary view of the profession and the academic formation of the chemical engineer and to guide the attributes and areas of professional activity. In addition, bring insights on the role of chemical engineer in industry, teaching and research, emphasize professional ethics in engineering and, finally, introduce basic concepts of chemical engineering.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>787307 - Luis Fernando Figueiredo Faria</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>The main objective of the course is to provide student a preliminary view of the profession and the academic formation of the chemical engineer and to guide the attributes and areas of professional activity. In addition, bring insights on the role of chemical engineer in industry, teaching and research, emphasize professional ethics in engineering and, finally, introduce basic concepts of chemical engineering.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>A Engenharia Química: Histórico e objetivos. Diferenças importantes entre ciência química e Engenharia Química. A Eng. Química aplicada a Indústria, ao Ensino e a Pesquisa. Principais atribuições e campos de atuação de um Engenheiro Químico. Legislação e associações de classe. Conceitos básicos em Processos Químicos e principais Operações Unitárias na Eng. Química. Dimensões e Unidades. Palestras e visitas.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) Apresentação da disciplina e grade curricular do curso de Engenharia Química na EEL.2) A Engenharia Química e a Sociedade - Histórico e Objetivos – A Eng. Química na Indústria, no Ensino e Pesquisa - Atribuições e Campo de Atuação do Engenheiro Químico - O Mercado de Trabalho - Órgãos que Regulamentam a profissão do Engenheiro Químico. Associações de classe.3) Definições básicas e Operações Unitárias na Eng. Química – Interpretação de fluxogramas de processo - As Indústrias Químicas e os Processos Industriais – Principais dimensões e unidades na engenharia química e suas conversões.4) Palestras e Visitas Técnicas a EEL e/ou a indústrias químicas para conhecimento de processos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>-Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>-Provas escritas; -participação e conteúdo de trabalho e seminário;</t>
+    <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) / 3Média final mínima de aprovação = 5,0</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média Final = (Prova1 + Prova2 + Nota de Trabalho) / 3Média final mínima de aprovação = 5,0</t>
+    <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>(Prova escrita + Média Final)/2         Nota Final mínima para aprovação= 5,0</t>
+    <t>1) INDÚSTRIA QUÍMICA – RISCOS E OPORTUNIDADES, Pedro Wongtschowski, Ed. Edgar Blucher, 2002.2) INDÚSTRIAS DE PROCESSOS QUÍMICOS SHREVE, R. Norris Jr. ; Joseph A. Brink Ed. LTC, 1980.3) PRINCÍPIOS ELEMENTARES DE PROCESSOS QUÍMICOS, Felder, R.M.; Roussau, R.W. , 2005.4) ENGENHARIA QUÍMICA - PRINCÍPIOS E CÁLCULOS, Himmelblau, D.M. - Riggs, J.B.  Ed. LTC,  20065) INTRODUÇÃO A ENGENHARIA QUÍMICA BRASIL, Nilo Índio Ed. Interciência , 2013.6) ENGENHARIA QUÍMICA, Cremasco, Marco Aurélio, Ed. Edgard Blucher, 2005.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
